--- a/fse_cal.xlsx
+++ b/fse_cal.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="s=10" sheetId="1" r:id="rId1"/>
+    <sheet name="s=15" sheetId="2" r:id="rId2"/>
+    <sheet name="N-2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="21">
   <si>
     <t>A-data delta_alfa</t>
   </si>
@@ -99,8 +101,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -314,7 +316,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -491,33 +493,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="4" width="17.875" style="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="17.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -552,7 +554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -593,7 +595,7 @@
         <v>60.613310375275894</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -634,10 +636,10 @@
         <v>84.059928741361716</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -672,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -713,7 +715,7 @@
         <v>45.033541870479063</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -754,10 +756,10 @@
         <v>95.394554826221494</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -792,7 +794,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -833,7 +835,7 @@
         <v>75.988802610842825</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -874,15 +876,15 @@
         <v>96.900794850975231</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -917,7 +919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -958,7 +960,7 @@
         <v>87.618938828528343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -999,10 +1001,10 @@
         <v>79.844321604061491</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1080,7 @@
         <v>53.05347267153526</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1119,10 +1121,10 @@
         <v>110.51489553724537</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>86.658163276793587</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1244,4 +1246,1621 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.50963875180999996</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.1700390991599999E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.47895830095199998</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3</f>
+        <v>0.50963875180999996</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3-C3</f>
+        <v>0.40725790996040001</v>
+      </c>
+      <c r="I3" s="3">
+        <f>B3-D3</f>
+        <v>3.0680450857999975E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <f>C3</f>
+        <v>7.1700390991599999E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3+J3</f>
+        <v>0.10238084184959997</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3/G3*100</f>
+        <v>20.088904441820958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.83981815591999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.13222066535800001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.308102384407</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B4</f>
+        <v>0.83981815591999998</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4-C4</f>
+        <v>0.17588171904899999</v>
+      </c>
+      <c r="I4" s="3">
+        <f>B4-D4</f>
+        <v>0.53171577151299998</v>
+      </c>
+      <c r="J4" s="3">
+        <f>C4</f>
+        <v>0.13222066535800001</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4+J4</f>
+        <v>0.66393643687100001</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4/G4*100</f>
+        <v>79.057166386653563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.40751260253600002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7.9559458119199997E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.27225393601300002</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B7</f>
+        <v>0.40751260253600002</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7-C7</f>
+        <v>0.19269447789380001</v>
+      </c>
+      <c r="I7" s="3">
+        <f>B7-D7</f>
+        <v>0.135258666523</v>
+      </c>
+      <c r="J7" s="3">
+        <f>C7</f>
+        <v>7.9559458119199997E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7+J7</f>
+        <v>0.21481812464220001</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7/G7*100</f>
+        <v>52.714473934146064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.905768001436</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.15507952135200001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.23609278078900001</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B8</f>
+        <v>0.905768001436</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8-C8</f>
+        <v>8.1013259436999996E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f>B8-D8</f>
+        <v>0.66967522064700002</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C8</f>
+        <v>0.15507952135200001</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8+J8</f>
+        <v>0.82475474199900001</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8/G8*100</f>
+        <v>91.055848814645486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.40945554765999997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.6345082123200005E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.19770767672199999</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B11</f>
+        <v>0.40945554765999997</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11-C11</f>
+        <v>0.13136259459879998</v>
+      </c>
+      <c r="I11" s="3">
+        <f>B11-D11</f>
+        <v>0.21174787093799999</v>
+      </c>
+      <c r="J11" s="3">
+        <f>C11</f>
+        <v>6.6345082123200005E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11+J11</f>
+        <v>0.27809295306119997</v>
+      </c>
+      <c r="L11" s="3">
+        <f>K11/G11*100</f>
+        <v>67.917739703485552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.70645644562400001</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.12730446540500001</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.165485619384</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B12</f>
+        <v>0.70645644562400001</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12-C12</f>
+        <v>3.8181153978999988E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B12-D12</f>
+        <v>0.54097082624000004</v>
+      </c>
+      <c r="J12" s="3">
+        <f>C12</f>
+        <v>0.12730446540500001</v>
+      </c>
+      <c r="K12" s="3">
+        <f>I12+J12</f>
+        <v>0.6682752916450001</v>
+      </c>
+      <c r="L12" s="3">
+        <f>K12/G12*100</f>
+        <v>94.595398737529351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.51434084874499997</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.7840487752300004E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.234318743494</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <f>B16</f>
+        <v>0.51434084874499997</v>
+      </c>
+      <c r="H16" s="3">
+        <f>D16-C16</f>
+        <v>0.1364782557417</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B16-D16</f>
+        <v>0.28002210525099996</v>
+      </c>
+      <c r="J16" s="3">
+        <f>C16</f>
+        <v>9.7840487752300004E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>I16+J16</f>
+        <v>0.37786259300329994</v>
+      </c>
+      <c r="L16" s="3">
+        <f>K16/G16*100</f>
+        <v>73.465406048399771</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.76067189626099996</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.13641489413499999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.215128629313</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <f>B17</f>
+        <v>0.76067189626099996</v>
+      </c>
+      <c r="H17" s="3">
+        <f>D17-C17</f>
+        <v>7.8713735178000011E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>B17-D17</f>
+        <v>0.54554326694799993</v>
+      </c>
+      <c r="J17" s="3">
+        <f>C17</f>
+        <v>0.13641489413499999</v>
+      </c>
+      <c r="K17" s="3">
+        <f>I17+J17</f>
+        <v>0.68195816108299989</v>
+      </c>
+      <c r="L17" s="3">
+        <f>K17/G17*100</f>
+        <v>89.652077911000944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.38897153918299998</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.10791828943499999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.26075087010199999</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <f>B20</f>
+        <v>0.38897153918299998</v>
+      </c>
+      <c r="H20" s="3">
+        <f>D20-C20</f>
+        <v>0.15283258066700001</v>
+      </c>
+      <c r="I20" s="3">
+        <f>B20-D20</f>
+        <v>0.12822066908099999</v>
+      </c>
+      <c r="J20" s="3">
+        <f>C20</f>
+        <v>0.10791828943499999</v>
+      </c>
+      <c r="K20" s="3">
+        <f>I20+J20</f>
+        <v>0.23613895851599997</v>
+      </c>
+      <c r="L20" s="3">
+        <f>K20/G20*100</f>
+        <v>60.708544129472507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.84726596533999998</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.17121357706199999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.32721320913000002</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <f>B21</f>
+        <v>0.84726596533999998</v>
+      </c>
+      <c r="H21" s="3">
+        <f>D21-C21</f>
+        <v>0.15599963206800002</v>
+      </c>
+      <c r="I21" s="3">
+        <f>B21-D21</f>
+        <v>0.52005275620999991</v>
+      </c>
+      <c r="J21" s="3">
+        <f>C21</f>
+        <v>0.17121357706199999</v>
+      </c>
+      <c r="K21" s="3">
+        <f>I21+J21</f>
+        <v>0.69126633327199993</v>
+      </c>
+      <c r="L21" s="3">
+        <f>K21/G21*100</f>
+        <v>81.587879314212884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.40793362611700001</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.10318932650400001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.22951992768599999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <f>B24</f>
+        <v>0.40793362611700001</v>
+      </c>
+      <c r="H24" s="3">
+        <f>D24-C24</f>
+        <v>0.12633060118199999</v>
+      </c>
+      <c r="I24" s="3">
+        <f>B24-D24</f>
+        <v>0.17841369843100002</v>
+      </c>
+      <c r="J24" s="3">
+        <f>C24</f>
+        <v>0.10318932650400001</v>
+      </c>
+      <c r="K24" s="3">
+        <f>I24+J24</f>
+        <v>0.281603024935</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K24/G24*100</f>
+        <v>69.031579381061619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.63680843416999999</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.137948877237</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.198979415976</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <f>B25</f>
+        <v>0.63680843416999999</v>
+      </c>
+      <c r="H25" s="3">
+        <f>D25-C25</f>
+        <v>6.1030538738999995E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f>B25-D25</f>
+        <v>0.437829018194</v>
+      </c>
+      <c r="J25" s="3">
+        <f>C25</f>
+        <v>0.137948877237</v>
+      </c>
+      <c r="K25" s="3">
+        <f>I25+J25</f>
+        <v>0.575777895431</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K25/G25*100</f>
+        <v>90.416185549026892</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.46447376316599998</v>
+      </c>
+      <c r="C3" s="5">
+        <v>4.6702648285800001E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.245003300461</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3</f>
+        <v>0.46447376316599998</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3-C3</f>
+        <v>0.19830065217519999</v>
+      </c>
+      <c r="I3" s="3">
+        <f>B3-D3</f>
+        <v>0.21947046270499998</v>
+      </c>
+      <c r="J3" s="3">
+        <f>C3</f>
+        <v>4.6702648285800001E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3+J3</f>
+        <v>0.26617311099079999</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3/G3*100</f>
+        <v>57.306382426529311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.77834646832099996</v>
+      </c>
+      <c r="C4" s="5">
+        <v>8.6360433816599996E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.119842361056</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B7</f>
+        <v>0.34079999512800002</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D7-C7</f>
+        <v>0.12281751329729999</v>
+      </c>
+      <c r="I4" s="3">
+        <f>B7-D7</f>
+        <v>0.17460490677800003</v>
+      </c>
+      <c r="J4" s="3">
+        <f>C7</f>
+        <v>4.3377575052699999E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4+J4</f>
+        <v>0.21798248183070001</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4/G4*100</f>
+        <v>63.961996756727842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.34079999512800002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.3377575052699999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.16619508834999999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B7</f>
+        <v>0.34079999512800002</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7-C7</f>
+        <v>0.12281751329729999</v>
+      </c>
+      <c r="I7" s="3">
+        <f>B7-D7</f>
+        <v>0.17460490677800003</v>
+      </c>
+      <c r="J7" s="3">
+        <f>C7</f>
+        <v>4.3377575052699999E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7+J7</f>
+        <v>0.21798248183070001</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7/G7*100</f>
+        <v>63.961996756727842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.82655699973600005</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.26670963339E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.15367310000500001</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B8</f>
+        <v>0.82655699973600005</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8-C8</f>
+        <v>7.1006003671100007E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <f>B8-D8</f>
+        <v>0.67288389973100005</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C8</f>
+        <v>8.26670963339E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8+J8</f>
+        <v>0.75555099606490006</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8/G8*100</f>
+        <v>91.409424432461506</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.30167057041099998</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.9644233119999999E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.134659824732</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B11</f>
+        <v>0.30167057041099998</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11-C11</f>
+        <v>8.5015591612000008E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <f>B11-D11</f>
+        <v>0.16701074567899998</v>
+      </c>
+      <c r="J11" s="3">
+        <f>C11</f>
+        <v>4.9644233119999999E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11+J11</f>
+        <v>0.21665497879899998</v>
+      </c>
+      <c r="L11" s="3">
+        <f>K11/G11*100</f>
+        <v>71.818400616217332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.63687649298899995</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.10807735801399999</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.20410113759500001</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B12</f>
+        <v>0.63687649298899995</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12-C12</f>
+        <v>9.6023779581000016E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B12-D12</f>
+        <v>0.43277535539399992</v>
+      </c>
+      <c r="J12" s="3">
+        <f>C12</f>
+        <v>0.10807735801399999</v>
+      </c>
+      <c r="K12" s="3">
+        <f>I12+J12</f>
+        <v>0.5408527134079999</v>
+      </c>
+      <c r="L12" s="3">
+        <f>K12/G12*100</f>
+        <v>84.922699983737886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.47058820324700001</v>
+      </c>
+      <c r="C16" s="5">
+        <v>7.1429751390400004E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.19523883324399999</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <f>B16</f>
+        <v>0.47058820324700001</v>
+      </c>
+      <c r="H16" s="3">
+        <f>D16-C16</f>
+        <v>0.12380908185359998</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B16-D16</f>
+        <v>0.27534937000300003</v>
+      </c>
+      <c r="J16" s="3">
+        <f>C16</f>
+        <v>7.1429751390400004E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>I16+J16</f>
+        <v>0.34677912139340006</v>
+      </c>
+      <c r="L16" s="3">
+        <f>K16/G16*100</f>
+        <v>73.690568314434429</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.73440360414700001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.125597787259</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.26353753748999997</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <f>B17</f>
+        <v>0.73440360414700001</v>
+      </c>
+      <c r="H17" s="3">
+        <f>D17-C17</f>
+        <v>0.13793975023099997</v>
+      </c>
+      <c r="I17" s="3">
+        <f>B17-D17</f>
+        <v>0.47086606665700004</v>
+      </c>
+      <c r="J17" s="3">
+        <f>C17</f>
+        <v>0.125597787259</v>
+      </c>
+      <c r="K17" s="3">
+        <f>I17+J17</f>
+        <v>0.5964638539160001</v>
+      </c>
+      <c r="L17" s="3">
+        <f>K17/G17*100</f>
+        <v>81.217446448780024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.322045550071</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8.0961910108099999E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.20150172773</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <f>B20</f>
+        <v>0.322045550071</v>
+      </c>
+      <c r="H20" s="3">
+        <f>D20-C20</f>
+        <v>0.1205398176219</v>
+      </c>
+      <c r="I20" s="3">
+        <f>B20-D20</f>
+        <v>0.120543822341</v>
+      </c>
+      <c r="J20" s="3">
+        <f>C20</f>
+        <v>8.0961910108099999E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <f>I20+J20</f>
+        <v>0.2015057324491</v>
+      </c>
+      <c r="L20" s="3">
+        <f>K20/G20*100</f>
+        <v>62.57056879210873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.79043118423299996</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.112843252129</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.17284662284300001</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <f>B21</f>
+        <v>0.79043118423299996</v>
+      </c>
+      <c r="H21" s="3">
+        <f>D21-C21</f>
+        <v>6.0003370714000012E-2</v>
+      </c>
+      <c r="I21" s="3">
+        <f>B21-D21</f>
+        <v>0.61758456138999995</v>
+      </c>
+      <c r="J21" s="3">
+        <f>C21</f>
+        <v>0.112843252129</v>
+      </c>
+      <c r="K21" s="3">
+        <f>I21+J21</f>
+        <v>0.73042781351899999</v>
+      </c>
+      <c r="L21" s="3">
+        <f>K21/G21*100</f>
+        <v>92.408779927853601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.30344667564</v>
+      </c>
+      <c r="C24" s="5">
+        <v>7.1665782500200004E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.22436328045199999</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <f>B24</f>
+        <v>0.30344667564</v>
+      </c>
+      <c r="H24" s="3">
+        <f>D24-C24</f>
+        <v>0.15269749795179999</v>
+      </c>
+      <c r="I24" s="3">
+        <f>B24-D24</f>
+        <v>7.9083395188000005E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <f>C24</f>
+        <v>7.1665782500200004E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <f>I24+J24</f>
+        <v>0.15074917768820001</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K24/G24*100</f>
+        <v>49.678968263618181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.59661484863000003</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.11278017445000001</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.196732393462</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <f>B25</f>
+        <v>0.59661484863000003</v>
+      </c>
+      <c r="H25" s="3">
+        <f>D25-C25</f>
+        <v>8.3952219011999993E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f>B25-D25</f>
+        <v>0.39988245516800003</v>
+      </c>
+      <c r="J25" s="3">
+        <f>C25</f>
+        <v>0.11278017445000001</v>
+      </c>
+      <c r="K25" s="3">
+        <f>I25+J25</f>
+        <v>0.51266262961800002</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K25/G25*100</f>
+        <v>85.928573651028202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fse_cal.xlsx
+++ b/fse_cal.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="s=10" sheetId="1" r:id="rId1"/>
     <sheet name="s=15" sheetId="2" r:id="rId2"/>
-    <sheet name="N-2" sheetId="3" r:id="rId3"/>
+    <sheet name="15-n2-10" sheetId="3" r:id="rId3"/>
+    <sheet name="15-n4-1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="21">
   <si>
     <t>A-data delta_alfa</t>
   </si>
@@ -493,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="14.25"/>
@@ -1252,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
@@ -2059,7 +2060,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
@@ -2118,10 +2119,10 @@
         <v>0.46447376316599998</v>
       </c>
       <c r="C3" s="5">
-        <v>4.6702648285800001E-2</v>
+        <v>5.6267675139200002E-2</v>
       </c>
       <c r="D3" s="5">
-        <v>0.245003300461</v>
+        <v>0.20379036333600001</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>16</v>
@@ -2132,23 +2133,23 @@
       </c>
       <c r="H3" s="3">
         <f>D3-C3</f>
-        <v>0.19830065217519999</v>
+        <v>0.14752268819680001</v>
       </c>
       <c r="I3" s="3">
         <f>B3-D3</f>
-        <v>0.21947046270499998</v>
+        <v>0.26068339983</v>
       </c>
       <c r="J3" s="3">
         <f>C3</f>
-        <v>4.6702648285800001E-2</v>
+        <v>5.6267675139200002E-2</v>
       </c>
       <c r="K3" s="3">
         <f>I3+J3</f>
-        <v>0.26617311099079999</v>
+        <v>0.3169510749692</v>
       </c>
       <c r="L3" s="3">
         <f>K3/G3*100</f>
-        <v>57.306382426529311</v>
+        <v>68.238746750464713</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" thickBot="1">
@@ -2168,28 +2169,28 @@
         <v>17</v>
       </c>
       <c r="G4" s="3">
-        <f>B7</f>
-        <v>0.34079999512800002</v>
+        <f>B4</f>
+        <v>0.77834646832099996</v>
       </c>
       <c r="H4" s="3">
-        <f>D7-C7</f>
-        <v>0.12281751329729999</v>
+        <f>D4-C4</f>
+        <v>3.3481927239400008E-2</v>
       </c>
       <c r="I4" s="3">
-        <f>B7-D7</f>
-        <v>0.17460490677800003</v>
+        <f>B4-D4</f>
+        <v>0.65850410726499997</v>
       </c>
       <c r="J4" s="3">
-        <f>C7</f>
-        <v>4.3377575052699999E-2</v>
+        <f>C4</f>
+        <v>8.6360433816599996E-2</v>
       </c>
       <c r="K4" s="3">
         <f>I4+J4</f>
-        <v>0.21798248183070001</v>
+        <v>0.74486454108159994</v>
       </c>
       <c r="L4" s="3">
         <f>K4/G4*100</f>
-        <v>63.961996756727842</v>
+        <v>95.698326053739905</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" thickBot="1">
@@ -2248,10 +2249,10 @@
         <v>0.34079999512800002</v>
       </c>
       <c r="C7" s="5">
-        <v>4.3377575052699999E-2</v>
+        <v>3.3431962663399997E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.16619508834999999</v>
+        <v>0.15322006343899999</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -2262,23 +2263,23 @@
       </c>
       <c r="H7" s="3">
         <f>D7-C7</f>
-        <v>0.12281751329729999</v>
+        <v>0.1197881007756</v>
       </c>
       <c r="I7" s="3">
         <f>B7-D7</f>
-        <v>0.17460490677800003</v>
+        <v>0.18757993168900003</v>
       </c>
       <c r="J7" s="3">
         <f>C7</f>
-        <v>4.3377575052699999E-2</v>
+        <v>3.3431962663399997E-2</v>
       </c>
       <c r="K7" s="3">
         <f>I7+J7</f>
-        <v>0.21798248183070001</v>
+        <v>0.22101189435240004</v>
       </c>
       <c r="L7" s="3">
         <f>K7/G7*100</f>
-        <v>63.961996756727842</v>
+        <v>64.850908894347498</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" thickBot="1">
@@ -2566,10 +2567,10 @@
         <v>0.73440360414700001</v>
       </c>
       <c r="C17" s="5">
-        <v>0.125597787259</v>
+        <v>0.10273503550800001</v>
       </c>
       <c r="D17" s="5">
-        <v>0.26353753748999997</v>
+        <v>0.10879208129700001</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>17</v>
@@ -2580,23 +2581,23 @@
       </c>
       <c r="H17" s="3">
         <f>D17-C17</f>
-        <v>0.13793975023099997</v>
+        <v>6.0570457890000012E-3</v>
       </c>
       <c r="I17" s="3">
         <f>B17-D17</f>
-        <v>0.47086606665700004</v>
+        <v>0.62561152284999999</v>
       </c>
       <c r="J17" s="3">
         <f>C17</f>
-        <v>0.125597787259</v>
+        <v>0.10273503550800001</v>
       </c>
       <c r="K17" s="3">
         <f>I17+J17</f>
-        <v>0.5964638539160001</v>
+        <v>0.728346558358</v>
       </c>
       <c r="L17" s="3">
         <f>K17/G17*100</f>
-        <v>81.217446448780024</v>
+        <v>99.175242910737722</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickBot="1">
@@ -2785,10 +2786,10 @@
         <v>0.30344667564</v>
       </c>
       <c r="C24" s="5">
-        <v>7.1665782500200004E-2</v>
+        <v>8.0081167679400003E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>0.22436328045199999</v>
+        <v>0.17404251921200001</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>16</v>
@@ -2799,23 +2800,23 @@
       </c>
       <c r="H24" s="3">
         <f>D24-C24</f>
-        <v>0.15269749795179999</v>
+        <v>9.3961351532600004E-2</v>
       </c>
       <c r="I24" s="3">
         <f>B24-D24</f>
-        <v>7.9083395188000005E-2</v>
+        <v>0.12940415642799999</v>
       </c>
       <c r="J24" s="3">
         <f>C24</f>
-        <v>7.1665782500200004E-2</v>
+        <v>8.0081167679400003E-2</v>
       </c>
       <c r="K24" s="3">
         <f>I24+J24</f>
-        <v>0.15074917768820001</v>
+        <v>0.20948532410740001</v>
       </c>
       <c r="L24" s="3">
         <f>K24/G24*100</f>
-        <v>49.678968263618181</v>
+        <v>69.035300408407537</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickBot="1">
@@ -2826,10 +2827,10 @@
         <v>0.59661484863000003</v>
       </c>
       <c r="C25" s="5">
-        <v>0.11278017445000001</v>
+        <v>0.122533735302</v>
       </c>
       <c r="D25" s="5">
-        <v>0.196732393462</v>
+        <v>0.18169770953700001</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>17</v>
@@ -2840,23 +2841,835 @@
       </c>
       <c r="H25" s="3">
         <f>D25-C25</f>
-        <v>8.3952219011999993E-2</v>
+        <v>5.9163974235000014E-2</v>
       </c>
       <c r="I25" s="3">
         <f>B25-D25</f>
-        <v>0.39988245516800003</v>
+        <v>0.41491713909299999</v>
       </c>
       <c r="J25" s="3">
         <f>C25</f>
-        <v>0.11278017445000001</v>
+        <v>0.122533735302</v>
       </c>
       <c r="K25" s="3">
         <f>I25+J25</f>
-        <v>0.51266262961800002</v>
+        <v>0.53745087439499994</v>
       </c>
       <c r="L25" s="3">
         <f>K25/G25*100</f>
-        <v>85.928573651028202</v>
+        <v>90.083388911479886</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.52072232217600001</v>
+      </c>
+      <c r="C3" s="5">
+        <v>5.8120218614999997E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.40765514506799999</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3</f>
+        <v>0.52072232217600001</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3-C3</f>
+        <v>0.34953492645299999</v>
+      </c>
+      <c r="I3" s="3">
+        <f>B3-D3</f>
+        <v>0.11306717710800002</v>
+      </c>
+      <c r="J3" s="3">
+        <f>C3</f>
+        <v>5.8120218614999997E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3+J3</f>
+        <v>0.17118739572300001</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3/G3*100</f>
+        <v>32.874987000296109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.86175902313499997</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.109962704232</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.386575805163</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B4</f>
+        <v>0.86175902313499997</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4-C4</f>
+        <v>0.276613100931</v>
+      </c>
+      <c r="I4" s="3">
+        <f>B4-D4</f>
+        <v>0.47518321797199997</v>
+      </c>
+      <c r="J4" s="3">
+        <f>C4</f>
+        <v>0.109962704232</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4+J4</f>
+        <v>0.58514592220399997</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4/G4*100</f>
+        <v>67.901339759146708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.391210009922</v>
+      </c>
+      <c r="C7" s="5">
+        <v>5.7094103139399999E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.21950258411099999</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B7</f>
+        <v>0.391210009922</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7-C7</f>
+        <v>0.16240848097159999</v>
+      </c>
+      <c r="I7" s="3">
+        <f>B7-D7</f>
+        <v>0.17170742581100001</v>
+      </c>
+      <c r="J7" s="3">
+        <f>C7</f>
+        <v>5.7094103139399999E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7+J7</f>
+        <v>0.22880152895040001</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7/G7*100</f>
+        <v>58.485601888361394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.88106658393299997</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.7656423660399996E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.27973688132500002</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B8</f>
+        <v>0.88106658393299997</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8-C8</f>
+        <v>0.19208045766460002</v>
+      </c>
+      <c r="I8" s="3">
+        <f>B8-D8</f>
+        <v>0.60132970260800001</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C8</f>
+        <v>8.7656423660399996E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8+J8</f>
+        <v>0.68898612626840006</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8/G8*100</f>
+        <v>78.199098550852938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.42458648843800001</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6.8086319294200004E-2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.28568890801699998</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B11</f>
+        <v>0.42458648843800001</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11-C11</f>
+        <v>0.21760258872279997</v>
+      </c>
+      <c r="I11" s="3">
+        <f>B11-D11</f>
+        <v>0.13889758042100003</v>
+      </c>
+      <c r="J11" s="3">
+        <f>C11</f>
+        <v>6.8086319294200004E-2</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11+J11</f>
+        <v>0.20698389971520004</v>
+      </c>
+      <c r="L11" s="3">
+        <f>K11/G11*100</f>
+        <v>48.74952579783394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.70887722297400002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.118755260269</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.30220280321199999</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B12</f>
+        <v>0.70887722297400002</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12-C12</f>
+        <v>0.18344754294299997</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B12-D12</f>
+        <v>0.40667441976200003</v>
+      </c>
+      <c r="J12" s="3">
+        <f>C12</f>
+        <v>0.118755260269</v>
+      </c>
+      <c r="K12" s="3">
+        <f>I12+J12</f>
+        <v>0.52542968003099999</v>
+      </c>
+      <c r="L12" s="3">
+        <f>K12/G12*100</f>
+        <v>74.121394086641644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.51132310131699998</v>
+      </c>
+      <c r="C16" s="5">
+        <v>9.8568021928999994E-2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.20448794945500001</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <f>B16</f>
+        <v>0.51132310131699998</v>
+      </c>
+      <c r="H16" s="3">
+        <f>D16-C16</f>
+        <v>0.10591992752600002</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B16-D16</f>
+        <v>0.30683515186199994</v>
+      </c>
+      <c r="J16" s="3">
+        <f>C16</f>
+        <v>9.8568021928999994E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>I16+J16</f>
+        <v>0.40540317379099994</v>
+      </c>
+      <c r="L16" s="3">
+        <f>K16/G16*100</f>
+        <v>79.285127690654861</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.76221606639700001</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.12474150154999999</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.18531278452</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <f>B17</f>
+        <v>0.76221606639700001</v>
+      </c>
+      <c r="H17" s="3">
+        <f>D17-C17</f>
+        <v>6.0571282970000001E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <f>B17-D17</f>
+        <v>0.57690328187700002</v>
+      </c>
+      <c r="J17" s="3">
+        <f>C17</f>
+        <v>0.12474150154999999</v>
+      </c>
+      <c r="K17" s="3">
+        <f>I17+J17</f>
+        <v>0.70164478342699999</v>
+      </c>
+      <c r="L17" s="3">
+        <f>K17/G17*100</f>
+        <v>92.053266043535288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.37901810130800001</v>
+      </c>
+      <c r="C20" s="5">
+        <v>8.5856910306200004E-2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.234954606998</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <f>B20</f>
+        <v>0.37901810130800001</v>
+      </c>
+      <c r="H20" s="3">
+        <f>D20-C20</f>
+        <v>0.14909769669180001</v>
+      </c>
+      <c r="I20" s="3">
+        <f>B20-D20</f>
+        <v>0.14406349431000001</v>
+      </c>
+      <c r="J20" s="3">
+        <f>C20</f>
+        <v>8.5856910306200004E-2</v>
+      </c>
+      <c r="K20" s="3">
+        <f>I20+J20</f>
+        <v>0.2299204046162</v>
+      </c>
+      <c r="L20" s="3">
+        <f>K20/G20*100</f>
+        <v>60.662117144996373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0.82270894425600005</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.12116155258899999</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.27497025381899998</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <f>B21</f>
+        <v>0.82270894425600005</v>
+      </c>
+      <c r="H21" s="3">
+        <f>D21-C21</f>
+        <v>0.15380870122999998</v>
+      </c>
+      <c r="I21" s="3">
+        <f>B21-D21</f>
+        <v>0.54773869043700008</v>
+      </c>
+      <c r="J21" s="3">
+        <f>C21</f>
+        <v>0.12116155258899999</v>
+      </c>
+      <c r="K21" s="3">
+        <f>I21+J21</f>
+        <v>0.66890024302600004</v>
+      </c>
+      <c r="L21" s="3">
+        <f>K21/G21*100</f>
+        <v>81.304603249561879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.42086454319799999</v>
+      </c>
+      <c r="C24" s="5">
+        <v>9.4554978820799995E-2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.12074446134</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <f>B24</f>
+        <v>0.42086454319799999</v>
+      </c>
+      <c r="H24" s="3">
+        <f>D24-C24</f>
+        <v>2.6189482519200002E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <f>B24-D24</f>
+        <v>0.30012008185799999</v>
+      </c>
+      <c r="J24" s="3">
+        <f>C24</f>
+        <v>9.4554978820799995E-2</v>
+      </c>
+      <c r="K24" s="3">
+        <f>I24+J24</f>
+        <v>0.39467506067879998</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K24/G24*100</f>
+        <v>93.777218123390611</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.63441731342399998</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.15091147499499999</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.246347193646</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <f>B25</f>
+        <v>0.63441731342399998</v>
+      </c>
+      <c r="H25" s="3">
+        <f>D25-C25</f>
+        <v>9.5435718651000007E-2</v>
+      </c>
+      <c r="I25" s="3">
+        <f>B25-D25</f>
+        <v>0.38807011977799999</v>
+      </c>
+      <c r="J25" s="3">
+        <f>C25</f>
+        <v>0.15091147499499999</v>
+      </c>
+      <c r="K25" s="3">
+        <f>I25+J25</f>
+        <v>0.53898159477300001</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K25/G25*100</f>
+        <v>84.956949214401817</v>
       </c>
     </row>
   </sheetData>

--- a/fse_cal.xlsx
+++ b/fse_cal.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="s=10" sheetId="1" r:id="rId1"/>
     <sheet name="s=15" sheetId="2" r:id="rId2"/>
     <sheet name="15-n2-10" sheetId="3" r:id="rId3"/>
     <sheet name="15-n4-1" sheetId="4" r:id="rId4"/>
+    <sheet name="MFCCA" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="21">
   <si>
     <t>A-data delta_alfa</t>
   </si>
@@ -102,8 +103,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,33 +495,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17.875" style="1"/>
     <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="17.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -596,7 +597,7 @@
         <v>60.613310375275894</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -637,10 +638,10 @@
         <v>84.059928741361716</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -675,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -716,7 +717,7 @@
         <v>45.033541870479063</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -757,10 +758,10 @@
         <v>95.394554826221494</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -836,7 +837,7 @@
         <v>75.988802610842825</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -877,15 +878,15 @@
         <v>96.900794850975231</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -920,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -961,7 +962,7 @@
         <v>87.618938828528343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1002,10 +1003,10 @@
         <v>79.844321604061491</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1081,7 +1082,7 @@
         <v>53.05347267153526</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1122,10 +1123,10 @@
         <v>110.51489553724537</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1160,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>86.658163276793587</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1250,16 +1251,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1267,7 +1268,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>20.088904441820958</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1384,7 +1385,7 @@
         <v>79.057166386653563</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1397,7 +1398,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>52.714473934146064</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>91.055848814645486</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1527,7 +1528,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>67.917739703485552</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>94.595398737529351</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1657,7 +1658,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1673,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>73.465406048399771</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>89.652077911000944</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1802,7 +1803,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>60.708544129472507</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1920,7 @@
         <v>81.587879314212884</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1932,7 +1933,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2009,7 @@
         <v>69.031579381061619</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2052,20 +2053,21 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" thickBot="1">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>68.238746750464713</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>95.698326053739905</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2206,7 +2208,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>64.850908894347498</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>91.409424432461506</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2336,7 +2338,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2414,7 @@
         <v>71.818400616217332</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2453,7 +2455,7 @@
         <v>84.922699983737886</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75">
+    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2466,7 +2468,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2483,7 +2485,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>73.690568314434429</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>99.175242910737722</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2613,7 +2615,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2691,7 @@
         <v>62.57056879210873</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>92.408779927853601</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -2743,7 +2745,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2778,7 +2780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2819,7 +2821,7 @@
         <v>69.035300408407537</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2868,16 +2870,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2923,7 +2925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2964,7 +2966,7 @@
         <v>32.874987000296109</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>67.901339759146708</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3018,7 +3020,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3053,7 +3055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3094,7 +3096,7 @@
         <v>58.485601888361394</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3135,7 +3137,7 @@
         <v>78.199098550852938</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3148,7 +3150,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>48.74952579783394</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>74.121394086641644</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1">
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3278,7 +3280,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3295,7 +3297,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3330,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -3371,7 +3373,7 @@
         <v>79.285127690654861</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>92.053266043535288</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3425,7 +3427,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +3462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3501,7 +3503,7 @@
         <v>60.662117144996373</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>81.304603249561879</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -3555,7 +3557,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -3590,7 +3592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -3631,7 +3633,7 @@
         <v>93.777218123390611</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1">
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -3670,6 +3672,817 @@
       <c r="L25" s="3">
         <f>K25/G25*100</f>
         <v>84.956949214401817</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.0851546329552999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>6.9131405694464895E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.51901446383672101</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <f>B3</f>
+        <v>1.0851546329552999</v>
+      </c>
+      <c r="H3" s="3">
+        <f>D3-C3</f>
+        <v>0.4498830581422561</v>
+      </c>
+      <c r="I3" s="3">
+        <f>B3-D3</f>
+        <v>0.5661401691185789</v>
+      </c>
+      <c r="J3" s="3">
+        <f>C3</f>
+        <v>6.9131405694464895E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <f>I3+J3</f>
+        <v>0.63527157481304375</v>
+      </c>
+      <c r="L3" s="3">
+        <f>K3/G3*100</f>
+        <v>58.54203221553329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1.28581561974903</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.12964164581274801</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.57093991164312596</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3">
+        <f>B4</f>
+        <v>1.28581561974903</v>
+      </c>
+      <c r="H4" s="3">
+        <f>D4-C4</f>
+        <v>0.44129826583037796</v>
+      </c>
+      <c r="I4" s="3">
+        <f>B4-D4</f>
+        <v>0.71487570810590406</v>
+      </c>
+      <c r="J4" s="3">
+        <f>C4</f>
+        <v>0.12964164581274801</v>
+      </c>
+      <c r="K4" s="3">
+        <f>I4+J4</f>
+        <v>0.84451735391865212</v>
+      </c>
+      <c r="L4" s="3">
+        <f>K4/G4*100</f>
+        <v>65.679506528586728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.92084478697495997</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6.0380513131349699E-2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.67487454069514696</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3">
+        <f>B7</f>
+        <v>0.92084478697495997</v>
+      </c>
+      <c r="H7" s="3">
+        <f>D7-C7</f>
+        <v>0.61449402756379723</v>
+      </c>
+      <c r="I7" s="3">
+        <f>B7-D7</f>
+        <v>0.24597024627981301</v>
+      </c>
+      <c r="J7" s="3">
+        <f>C7</f>
+        <v>6.0380513131349699E-2</v>
+      </c>
+      <c r="K7" s="3">
+        <f>I7+J7</f>
+        <v>0.30635075941116269</v>
+      </c>
+      <c r="L7" s="3">
+        <f>K7/G7*100</f>
+        <v>33.268446946151101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1.26186292934819</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.197843548275106</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.63797477579881501</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3">
+        <f>B8</f>
+        <v>1.26186292934819</v>
+      </c>
+      <c r="H8" s="3">
+        <f>D8-C8</f>
+        <v>0.44013122752370903</v>
+      </c>
+      <c r="I8" s="3">
+        <f>B8-D8</f>
+        <v>0.62388815354937499</v>
+      </c>
+      <c r="J8" s="3">
+        <f>C8</f>
+        <v>0.197843548275106</v>
+      </c>
+      <c r="K8" s="3">
+        <f>I8+J8</f>
+        <v>0.82173170182448096</v>
+      </c>
+      <c r="L8" s="3">
+        <f>K8/G8*100</f>
+        <v>65.120520043246145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.90766403553005903</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.105989039248251</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.50787046068471198</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3">
+        <f>B11</f>
+        <v>0.90766403553005903</v>
+      </c>
+      <c r="H11" s="3">
+        <f>D11-C11</f>
+        <v>0.40188142143646099</v>
+      </c>
+      <c r="I11" s="3">
+        <f>B11-D11</f>
+        <v>0.39979357484534706</v>
+      </c>
+      <c r="J11" s="3">
+        <f>C11</f>
+        <v>0.105989039248251</v>
+      </c>
+      <c r="K11" s="3">
+        <f>I11+J11</f>
+        <v>0.50578261409359804</v>
+      </c>
+      <c r="L11" s="3">
+        <f>K11/G11*100</f>
+        <v>55.723549055045495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.98871300482687896</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.15086166792844499</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.45853351737029102</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3">
+        <f>B12</f>
+        <v>0.98871300482687896</v>
+      </c>
+      <c r="H12" s="3">
+        <f>D12-C12</f>
+        <v>0.307671849441846</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B12-D12</f>
+        <v>0.53017948745658794</v>
+      </c>
+      <c r="J12" s="3">
+        <f>C12</f>
+        <v>0.15086166792844499</v>
+      </c>
+      <c r="K12" s="3">
+        <f>I12+J12</f>
+        <v>0.68104115538503296</v>
+      </c>
+      <c r="L12" s="3">
+        <f>K12/G12*100</f>
+        <v>68.881581617739656</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.1994375624831199</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.121714762494866</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.67781838655058602</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <f>B16</f>
+        <v>1.1994375624831199</v>
+      </c>
+      <c r="H16" s="3">
+        <f>D16-C16</f>
+        <v>0.55610362405572</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B16-D16</f>
+        <v>0.52161917593253393</v>
+      </c>
+      <c r="J16" s="3">
+        <f>C16</f>
+        <v>0.121714762494866</v>
+      </c>
+      <c r="K16" s="3">
+        <f>I16+J16</f>
+        <v>0.64333393842739994</v>
+      </c>
+      <c r="L16" s="3">
+        <f>K16/G16*100</f>
+        <v>53.636300758794498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.24623015907892</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.114968193929814</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.53225981879400497</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3">
+        <f>B17</f>
+        <v>1.24623015907892</v>
+      </c>
+      <c r="H17" s="3">
+        <f>D17-C17</f>
+        <v>0.41729162486419097</v>
+      </c>
+      <c r="I17" s="3">
+        <f>B17-D17</f>
+        <v>0.71397034028491502</v>
+      </c>
+      <c r="J17" s="3">
+        <f>C17</f>
+        <v>0.114968193929814</v>
+      </c>
+      <c r="K17" s="3">
+        <f>I17+J17</f>
+        <v>0.82893853421472907</v>
+      </c>
+      <c r="L17" s="3">
+        <f>K17/G17*100</f>
+        <v>66.515685579892548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.94356043189376204</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.130869938692837</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.52937107721493404</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <f>B20</f>
+        <v>0.94356043189376204</v>
+      </c>
+      <c r="H20" s="3">
+        <f>D20-C20</f>
+        <v>0.39850113852209701</v>
+      </c>
+      <c r="I20" s="3">
+        <f>B20-D20</f>
+        <v>0.414189354678828</v>
+      </c>
+      <c r="J20" s="3">
+        <f>C20</f>
+        <v>0.130869938692837</v>
+      </c>
+      <c r="K20" s="3">
+        <f>I20+J20</f>
+        <v>0.54505929337166503</v>
+      </c>
+      <c r="L20" s="3">
+        <f>K20/G20*100</f>
+        <v>57.766230433986095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1.3232804597406</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.26848944036150502</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.80107617806493903</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="3">
+        <f>B21</f>
+        <v>1.3232804597406</v>
+      </c>
+      <c r="H21" s="3">
+        <f>D21-C21</f>
+        <v>0.53258673770343401</v>
+      </c>
+      <c r="I21" s="3">
+        <f>B21-D21</f>
+        <v>0.52220428167566102</v>
+      </c>
+      <c r="J21" s="3">
+        <f>C21</f>
+        <v>0.26848944036150502</v>
+      </c>
+      <c r="K21" s="3">
+        <f>I21+J21</f>
+        <v>0.79069372203716604</v>
+      </c>
+      <c r="L21" s="3">
+        <f>K21/G21*100</f>
+        <v>59.752542721908256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.93298087103204397</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.13596279046608001</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.50174949264278601</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <f>B24</f>
+        <v>0.93298087103204397</v>
+      </c>
+      <c r="H24" s="3">
+        <f>D24-C24</f>
+        <v>0.365786702176706</v>
+      </c>
+      <c r="I24" s="3">
+        <f>B24-D24</f>
+        <v>0.43123137838925796</v>
+      </c>
+      <c r="J24" s="3">
+        <f>C24</f>
+        <v>0.13596279046608001</v>
+      </c>
+      <c r="K24" s="3">
+        <f>I24+J24</f>
+        <v>0.56719416885533791</v>
+      </c>
+      <c r="L24" s="3">
+        <f>K24/G24*100</f>
+        <v>60.793761851507156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.84696747517786697</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.35821673238287399</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.64089388419087601</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3">
+        <f>B25</f>
+        <v>0.84696747517786697</v>
+      </c>
+      <c r="H25" s="3">
+        <f>D25-C25</f>
+        <v>0.28267715180800201</v>
+      </c>
+      <c r="I25" s="3">
+        <f>B25-D25</f>
+        <v>0.20607359098699096</v>
+      </c>
+      <c r="J25" s="3">
+        <f>C25</f>
+        <v>0.35821673238287399</v>
+      </c>
+      <c r="K25" s="3">
+        <f>I25+J25</f>
+        <v>0.56429032336986495</v>
+      </c>
+      <c r="L25" s="3">
+        <f>K25/G25*100</f>
+        <v>66.624792557867877</v>
       </c>
     </row>
   </sheetData>

--- a/fse_cal.xlsx
+++ b/fse_cal.xlsx
@@ -3684,8 +3684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3877,7 +3877,7 @@
         <v>6.0380513131349699E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.67487454069514696</v>
+        <v>0.568456792622273</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -3888,11 +3888,11 @@
       </c>
       <c r="H7" s="3">
         <f>D7-C7</f>
-        <v>0.61449402756379723</v>
+        <v>0.50807627949092327</v>
       </c>
       <c r="I7" s="3">
         <f>B7-D7</f>
-        <v>0.24597024627981301</v>
+        <v>0.35238799435268697</v>
       </c>
       <c r="J7" s="3">
         <f>C7</f>
@@ -3900,11 +3900,11 @@
       </c>
       <c r="K7" s="3">
         <f>I7+J7</f>
-        <v>0.30635075941116269</v>
+        <v>0.41276850748403665</v>
       </c>
       <c r="L7" s="3">
         <f>K7/G7*100</f>
-        <v>33.268446946151101</v>
+        <v>44.824981725748842</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3918,7 +3918,7 @@
         <v>0.197843548275106</v>
       </c>
       <c r="D8" s="5">
-        <v>0.63797477579881501</v>
+        <v>0.43265096715672902</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>17</v>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="H8" s="3">
         <f>D8-C8</f>
-        <v>0.44013122752370903</v>
+        <v>0.23480741888162301</v>
       </c>
       <c r="I8" s="3">
         <f>B8-D8</f>
-        <v>0.62388815354937499</v>
+        <v>0.82921196219146098</v>
       </c>
       <c r="J8" s="3">
         <f>C8</f>
@@ -3941,11 +3941,11 @@
       </c>
       <c r="K8" s="3">
         <f>I8+J8</f>
-        <v>0.82173170182448096</v>
+        <v>1.0270555104665671</v>
       </c>
       <c r="L8" s="3">
         <f>K8/G8*100</f>
-        <v>65.120520043246145</v>
+        <v>81.392002774587283</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4325,7 +4325,7 @@
         <v>0.26848944036150502</v>
       </c>
       <c r="D21" s="5">
-        <v>0.80107617806493903</v>
+        <v>0.59105104595673696</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>17</v>
@@ -4336,11 +4336,11 @@
       </c>
       <c r="H21" s="3">
         <f>D21-C21</f>
-        <v>0.53258673770343401</v>
+        <v>0.32256160559523195</v>
       </c>
       <c r="I21" s="3">
         <f>B21-D21</f>
-        <v>0.52220428167566102</v>
+        <v>0.73222941378386308</v>
       </c>
       <c r="J21" s="3">
         <f>C21</f>
@@ -4348,11 +4348,11 @@
       </c>
       <c r="K21" s="3">
         <f>I21+J21</f>
-        <v>0.79069372203716604</v>
+        <v>1.0007188541453682</v>
       </c>
       <c r="L21" s="3">
         <f>K21/G21*100</f>
-        <v>59.752542721908256</v>
+        <v>75.624093651434791</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4411,7 +4411,7 @@
         <v>0.93298087103204397</v>
       </c>
       <c r="C24" s="5">
-        <v>0.13596279046608001</v>
+        <v>0.15000823040995701</v>
       </c>
       <c r="D24" s="5">
         <v>0.50174949264278601</v>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="H24" s="3">
         <f>D24-C24</f>
-        <v>0.365786702176706</v>
+        <v>0.35174126223282898</v>
       </c>
       <c r="I24" s="3">
         <f>B24-D24</f>
@@ -4433,15 +4433,15 @@
       </c>
       <c r="J24" s="3">
         <f>C24</f>
-        <v>0.13596279046608001</v>
+        <v>0.15000823040995701</v>
       </c>
       <c r="K24" s="3">
         <f>I24+J24</f>
-        <v>0.56719416885533791</v>
+        <v>0.58123960879921499</v>
       </c>
       <c r="L24" s="3">
         <f>K24/G24*100</f>
-        <v>60.793761851507156</v>
+        <v>62.299198927439946</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">

--- a/fse_cal.xlsx
+++ b/fse_cal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -104,17 +104,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -509,19 +509,19 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="17.875" style="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="17.875" style="1"/>
+    <col min="1" max="4" width="17.85546875" style="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="17.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +556,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -597,7 +597,7 @@
         <v>60.613310375275894</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -638,10 +638,10 @@
         <v>84.059928741361716</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -676,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>45.033541870479063</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -758,10 +758,10 @@
         <v>95.394554826221494</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -837,7 +837,7 @@
         <v>75.988802610842825</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -878,15 +878,15 @@
         <v>96.900794850975231</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -962,7 +962,7 @@
         <v>87.618938828528343</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1003,10 +1003,10 @@
         <v>79.844321604061491</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>53.05347267153526</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1123,10 +1123,10 @@
         <v>110.51489553724537</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>86.658163276793587</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -1258,9 +1258,9 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>20.088904441820958</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>79.057166386653563</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1398,7 +1398,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>52.714473934146064</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>91.055848814645486</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1528,7 +1528,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>67.917739703485552</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>94.595398737529351</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1658,7 +1658,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>73.465406048399771</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>89.652077911000944</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1803,7 +1803,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>60.708544129472507</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>81.587879314212884</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1933,7 +1933,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>69.031579381061619</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2065,9 +2065,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.5" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="16.5" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>68.238746750464713</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>95.698326053739905</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2208,7 +2208,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16.5" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16.5" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>64.850908894347498</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16.5" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>91.409424432461506</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="16.5" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2338,7 +2338,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16.5" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16.5" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>71.818400616217332</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16.5" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>84.922699983737886</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2468,7 +2468,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="16.5" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -2485,7 +2485,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16.5" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16.5" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>73.690568314434429</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16.5" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>99.175242910737722</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2615,7 +2615,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16.5" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>62.57056879210873</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16.5" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>92.408779927853601</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickBot="1">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -2745,7 +2745,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16.5" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16.5" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>69.035300408407537</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16.5" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -2877,9 +2877,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>32.874987000296109</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>67.901339759146708</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3020,7 +3020,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>58.485601888361394</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>78.199098550852938</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3150,7 +3150,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>48.74952579783394</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>74.121394086641644</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3280,7 +3280,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>79.285127690654861</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>92.053266043535288</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>60.662117144996373</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>81.304603249561879</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -3557,7 +3557,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>93.777218123390611</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
@@ -3685,12 +3685,12 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3777,7 +3777,7 @@
         <v>58.54203221553329</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>65.679506528586728</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -3831,7 +3831,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3874,10 +3874,10 @@
         <v>0.92084478697495997</v>
       </c>
       <c r="C7" s="5">
-        <v>6.0380513131349699E-2</v>
+        <v>4.6739454880242601E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>0.568456792622273</v>
+        <v>0.490010249312399</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>16</v>
@@ -3888,26 +3888,26 @@
       </c>
       <c r="H7" s="3">
         <f>D7-C7</f>
-        <v>0.50807627949092327</v>
+        <v>0.44327079443215639</v>
       </c>
       <c r="I7" s="3">
         <f>B7-D7</f>
-        <v>0.35238799435268697</v>
+        <v>0.43083453766256097</v>
       </c>
       <c r="J7" s="3">
         <f>C7</f>
-        <v>6.0380513131349699E-2</v>
+        <v>4.6739454880242601E-2</v>
       </c>
       <c r="K7" s="3">
         <f>I7+J7</f>
-        <v>0.41276850748403665</v>
+        <v>0.47757399254280358</v>
       </c>
       <c r="L7" s="3">
         <f>K7/G7*100</f>
-        <v>44.824981725748842</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>51.86259392439716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>81.392002774587283</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3961,7 +3961,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>55.723549055045495</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>68.881581617739656</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="18" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4091,7 +4091,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -4108,7 +4108,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>53.636300758794498</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4225,7 +4225,7 @@
         <v>66.515685579892548</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="6"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4238,7 +4238,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>57.766230433986095</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>75.624093651434791</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A22" s="6"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -4368,7 +4368,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>7</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>62.299198927439946</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="18" customHeight="1" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>5</v>
       </c>
